--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728.48068849357</v>
+        <v>940967.657010221</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4728.48068849357</v>
+        <v>940967.657010221</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96609.55126031162</v>
+        <v>6710524.335911411</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96609.55126031162</v>
+        <v>6710524.335911411</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610034646.010428</v>
+        <v>57368572.78799237</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17680.0547448442</v>
+        <v>1366554.935231829</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34040.01856999487</v>
+        <v>2503754.759280568</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50202.89911094995</v>
+        <v>3640954.583329307</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66614.5506111023</v>
+        <v>4775887.219032667</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83026.20211125464</v>
+        <v>5910819.854736028</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99437.853611407</v>
+        <v>7045752.490439388</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115849.5051115594</v>
+        <v>8180685.126142746</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132261.1566117117</v>
+        <v>9315617.761846101</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>148669.2725417388</v>
+        <v>10447885.23485585</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>165080.7145323719</v>
+        <v>11580814.59392621</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181492.156523005</v>
+        <v>12713743.95299657</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>197903.5985136381</v>
+        <v>13846673.31206693</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>214315.0405042712</v>
+        <v>14979602.67113729</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>230726.4824949044</v>
+        <v>16112532.03020766</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>247137.9244855377</v>
+        <v>17245461.38927804</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>152</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1297</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
